--- a/Resultados/Resultado_final_1.xlsx
+++ b/Resultados/Resultado_final_1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="416" uniqueCount="6">
   <si>
     <t>Número_de_nodo</t>
   </si>
@@ -82,10 +82,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="true"/>
-    <col min="2" max="2" width="24.5546875" customWidth="true"/>
-    <col min="3" max="3" width="6.5546875" customWidth="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="1" max="1" width="17.28515625" customWidth="true"/>
+    <col min="2" max="2" width="26.5703125" customWidth="true"/>
+    <col min="3" max="3" width="7" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -121,7 +121,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>5.1844111338855647</v>
+        <v>14.412286312050268</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
@@ -135,7 +135,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>3.0220998926591083</v>
+        <v>16.244753906788905</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
@@ -149,7 +149,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>5.1844457017028782</v>
+        <v>12.487606188220566</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
@@ -163,7 +163,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0">
-        <v>23.123749868387868</v>
+        <v>18.057809698177778</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>4</v>
@@ -177,7 +177,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0">
-        <v>23.123753670904755</v>
+        <v>25.953337324126537</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>4</v>
@@ -191,7 +191,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.6650691350003759</v>
+        <v>0.6288617843230131</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
@@ -205,7 +205,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.66506737968886775</v>
+        <v>0.32056715854298196</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>4</v>
@@ -219,7 +219,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="0">
-        <v>11.93240760495179</v>
+        <v>17.421843157294834</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>4</v>
@@ -233,7 +233,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="0">
-        <v>0.40362465281017701</v>
+        <v>2.2460097311669718</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>4</v>
@@ -247,7 +247,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.97300875559589906</v>
+        <v>-0.15354311784223923</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>4</v>
@@ -261,7 +261,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="0">
-        <v>0.42238318462813013</v>
+        <v>0.96061507079800257</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>4</v>
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="0">
-        <v>4.2664693334507815</v>
+        <v>5.7861048538480508</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>4</v>
@@ -289,7 +289,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="0">
-        <v>4.2664701906415905</v>
+        <v>4.6778934023063687</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>4</v>
@@ -303,7 +303,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="0">
-        <v>-1.2571902388262819</v>
+        <v>-0.74709997739347112</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>4</v>
@@ -317,7 +317,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="0">
-        <v>-1.2571897016779898</v>
+        <v>-0.89483034642825809</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>4</v>
@@ -331,7 +331,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="0">
-        <v>-1.1833654105827287</v>
+        <v>-0.14898005949675217</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>4</v>
@@ -345,7 +345,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="0">
-        <v>1.3302846910705406</v>
+        <v>2.738578176185372</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>4</v>
@@ -359,7 +359,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="0">
-        <v>-1.1833431511026191</v>
+        <v>-0.55910037536713086</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>4</v>
@@ -373,7 +373,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="0">
-        <v>1.2830196797501379</v>
+        <v>11.073188238121766</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>4</v>
@@ -387,7 +387,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="0">
-        <v>0.050557319546384559</v>
+        <v>0.45153031547425443</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>4</v>
@@ -401,7 +401,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="0">
-        <v>0.050557443481756344</v>
+        <v>0.47380413846448233</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>4</v>
@@ -415,7 +415,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="0">
-        <v>-1.3238106993941103</v>
+        <v>-1.0020056334643532</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>4</v>
@@ -429,7 +429,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="0">
-        <v>-1.3238100617310751</v>
+        <v>-1.1635305782268108</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>4</v>
@@ -443,7 +443,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.74693484415861067</v>
+        <v>-0.39436148738457716</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>4</v>
@@ -457,7 +457,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0">
-        <v>-1.2273869604582575</v>
+        <v>-0.89669080353611841</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>4</v>
@@ -471,7 +471,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="0">
-        <v>-1.2261192864340993</v>
+        <v>-0.84541177068950357</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>4</v>
@@ -485,7 +485,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="0">
-        <v>-1.22751945295554</v>
+        <v>-0.91132393104717702</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>4</v>
@@ -499,7 +499,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="0">
-        <v>-1.0917669665612875</v>
+        <v>-0.84596235422938348</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>4</v>
@@ -513,7 +513,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="0">
-        <v>-1.0917668571096253</v>
+        <v>-0.79428285956083411</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>4</v>
@@ -527,7 +527,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="0">
-        <v>-1.185181380361551</v>
+        <v>-0.95646309603250024</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>4</v>
@@ -541,7 +541,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="0">
-        <v>-1.1851818010742923</v>
+        <v>-1.0999260966653277</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>4</v>
@@ -555,7 +555,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="0">
-        <v>-1.122608565589412</v>
+        <v>-0.24207885118857053</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>4</v>
@@ -569,7 +569,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="0">
-        <v>-1.1271603002342332</v>
+        <v>-0.94690491246513864</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>4</v>
@@ -583,7 +583,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="0">
-        <v>-1.1291048887927828</v>
+        <v>-0.53276173856479425</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>4</v>
@@ -597,7 +597,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="0">
-        <v>-1.1283197385285841</v>
+        <v>-0.9536471866803552</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>4</v>
@@ -610,9 +610,7 @@
       <c r="A38" s="0">
         <v>41</v>
       </c>
-      <c r="B38" s="0">
-        <v>-1.2526993248578144</v>
-      </c>
+      <c r="B38" s="0"/>
       <c r="C38" s="0" t="s">
         <v>4</v>
       </c>
@@ -624,9 +622,7 @@
       <c r="A39" s="0">
         <v>42</v>
       </c>
-      <c r="B39" s="0">
-        <v>-1.2526980193554829</v>
-      </c>
+      <c r="B39" s="0"/>
       <c r="C39" s="0" t="s">
         <v>4</v>
       </c>
@@ -638,9 +634,7 @@
       <c r="A40" s="0">
         <v>43</v>
       </c>
-      <c r="B40" s="0">
-        <v>-1.1825780082240229</v>
-      </c>
+      <c r="B40" s="0"/>
       <c r="C40" s="0" t="s">
         <v>4</v>
       </c>
@@ -652,9 +646,7 @@
       <c r="A41" s="0">
         <v>44</v>
       </c>
-      <c r="B41" s="0">
-        <v>-1.1825790855524283</v>
-      </c>
+      <c r="B41" s="0"/>
       <c r="C41" s="0" t="s">
         <v>4</v>
       </c>
@@ -666,9 +658,7 @@
       <c r="A42" s="0">
         <v>45</v>
       </c>
-      <c r="B42" s="0">
-        <v>-1.3620514836717355</v>
-      </c>
+      <c r="B42" s="0"/>
       <c r="C42" s="0" t="s">
         <v>4</v>
       </c>
@@ -680,9 +670,7 @@
       <c r="A43" s="0">
         <v>46</v>
       </c>
-      <c r="B43" s="0">
-        <v>-1.3620514930200114</v>
-      </c>
+      <c r="B43" s="0"/>
       <c r="C43" s="0" t="s">
         <v>4</v>
       </c>
@@ -694,9 +682,7 @@
       <c r="A44" s="0">
         <v>47</v>
       </c>
-      <c r="B44" s="0">
-        <v>-1.3166325805022192</v>
-      </c>
+      <c r="B44" s="0"/>
       <c r="C44" s="0" t="s">
         <v>4</v>
       </c>
@@ -708,9 +694,7 @@
       <c r="A45" s="0">
         <v>48</v>
       </c>
-      <c r="B45" s="0">
-        <v>-1.3166327085506877</v>
-      </c>
+      <c r="B45" s="0"/>
       <c r="C45" s="0" t="s">
         <v>4</v>
       </c>
@@ -722,9 +706,7 @@
       <c r="A46" s="0">
         <v>49</v>
       </c>
-      <c r="B46" s="0">
-        <v>-1.0883779701056744</v>
-      </c>
+      <c r="B46" s="0"/>
       <c r="C46" s="0" t="s">
         <v>4</v>
       </c>
@@ -736,9 +718,7 @@
       <c r="A47" s="0">
         <v>50</v>
       </c>
-      <c r="B47" s="0">
-        <v>-1.0883735373977137</v>
-      </c>
+      <c r="B47" s="0"/>
       <c r="C47" s="0" t="s">
         <v>4</v>
       </c>
@@ -750,9 +730,7 @@
       <c r="A48" s="0">
         <v>51</v>
       </c>
-      <c r="B48" s="0">
-        <v>-0.92715312691902774</v>
-      </c>
+      <c r="B48" s="0"/>
       <c r="C48" s="0" t="s">
         <v>4</v>
       </c>
@@ -764,9 +742,7 @@
       <c r="A49" s="0">
         <v>52</v>
       </c>
-      <c r="B49" s="0">
-        <v>-0.9271563482204247</v>
-      </c>
+      <c r="B49" s="0"/>
       <c r="C49" s="0" t="s">
         <v>4</v>
       </c>
